--- a/data/doctors.xlsx
+++ b/data/doctors.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Doctor_Schedules" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -471,10 +475,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:00</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>45906.375</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -492,10 +494,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:30</t>
-        </is>
+      <c r="C3" s="2" t="n">
+        <v>45906.39583333334</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -515,10 +515,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-09-06 10:30</t>
-        </is>
+      <c r="C4" s="2" t="n">
+        <v>45906.4375</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -536,10 +534,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:00</t>
-        </is>
+      <c r="C5" s="2" t="n">
+        <v>45906.45833333334</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -557,10 +553,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:30</t>
-        </is>
+      <c r="C6" s="2" t="n">
+        <v>45906.47916666666</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -578,10 +572,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:00</t>
-        </is>
+      <c r="C7" s="2" t="n">
+        <v>45906.58333333334</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -599,10 +591,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:00</t>
-        </is>
+      <c r="C8" s="2" t="n">
+        <v>45906.625</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -620,10 +610,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:30</t>
-        </is>
+      <c r="C9" s="2" t="n">
+        <v>45906.64583333334</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -641,10 +629,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-09-07 09:00</t>
-        </is>
+      <c r="C10" s="2" t="n">
+        <v>45907.375</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -664,10 +650,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:00</t>
-        </is>
+      <c r="C11" s="2" t="n">
+        <v>45907.41666666666</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -685,10 +669,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:30</t>
-        </is>
+      <c r="C12" s="2" t="n">
+        <v>45907.4375</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -706,10 +688,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2025-09-07 11:00</t>
-        </is>
+      <c r="C13" s="2" t="n">
+        <v>45907.45833333334</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -727,10 +707,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:00</t>
-        </is>
+      <c r="C14" s="2" t="n">
+        <v>45907.54166666666</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -750,10 +728,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:30</t>
-        </is>
+      <c r="C15" s="2" t="n">
+        <v>45907.5625</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -771,10 +747,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:00</t>
-        </is>
+      <c r="C16" s="2" t="n">
+        <v>45907.58333333334</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -792,10 +766,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:00</t>
-        </is>
+      <c r="C17" s="2" t="n">
+        <v>45907.625</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -813,10 +785,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2025-09-08 09:00</t>
-        </is>
+      <c r="C18" s="2" t="n">
+        <v>45908.375</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -834,10 +804,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2025-09-08 09:30</t>
-        </is>
+      <c r="C19" s="2" t="n">
+        <v>45908.39583333334</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -857,10 +825,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:30</t>
-        </is>
+      <c r="C20" s="2" t="n">
+        <v>45908.4375</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -880,10 +846,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:00</t>
-        </is>
+      <c r="C21" s="2" t="n">
+        <v>45908.45833333334</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -901,10 +865,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:30</t>
-        </is>
+      <c r="C22" s="2" t="n">
+        <v>45908.5625</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -924,10 +886,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-09-08 14:30</t>
-        </is>
+      <c r="C23" s="2" t="n">
+        <v>45908.60416666666</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -945,10 +905,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:30</t>
-        </is>
+      <c r="C24" s="2" t="n">
+        <v>45908.64583333334</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -968,15 +926,15 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
+      <c r="C25" s="2" t="n">
+        <v>45909.39583333334</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -989,10 +947,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:00</t>
-        </is>
+      <c r="C26" s="2" t="n">
+        <v>45909.45833333334</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -1010,10 +966,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:30</t>
-        </is>
+      <c r="C27" s="2" t="n">
+        <v>45909.47916666666</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -1031,10 +985,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:00</t>
-        </is>
+      <c r="C28" s="2" t="n">
+        <v>45909.54166666666</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1054,10 +1006,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:30</t>
-        </is>
+      <c r="C29" s="2" t="n">
+        <v>45909.5625</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1075,10 +1025,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:30</t>
-        </is>
+      <c r="C30" s="2" t="n">
+        <v>45909.64583333334</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -1096,10 +1044,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:00</t>
-        </is>
+      <c r="C31" s="2" t="n">
+        <v>45910.41666666666</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -1117,10 +1063,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:30</t>
-        </is>
+      <c r="C32" s="2" t="n">
+        <v>45910.4375</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -1138,10 +1082,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:00</t>
-        </is>
+      <c r="C33" s="2" t="n">
+        <v>45910.45833333334</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1161,10 +1103,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:30</t>
-        </is>
+      <c r="C34" s="2" t="n">
+        <v>45910.47916666666</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -1182,10 +1122,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2025-09-10 13:00</t>
-        </is>
+      <c r="C35" s="2" t="n">
+        <v>45910.54166666666</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -1203,10 +1141,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2025-09-10 13:30</t>
-        </is>
+      <c r="C36" s="2" t="n">
+        <v>45910.5625</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1224,10 +1160,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:30</t>
-        </is>
+      <c r="C37" s="2" t="n">
+        <v>45910.60416666666</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -1245,10 +1179,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:30</t>
-        </is>
+      <c r="C38" s="2" t="n">
+        <v>45910.64583333334</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1266,10 +1198,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2025-09-11 09:30</t>
-        </is>
+      <c r="C39" s="2" t="n">
+        <v>45911.39583333334</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -1287,10 +1217,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2025-09-11 10:30</t>
-        </is>
+      <c r="C40" s="2" t="n">
+        <v>45911.4375</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -1308,10 +1236,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:30</t>
-        </is>
+      <c r="C41" s="2" t="n">
+        <v>45911.47916666666</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -1329,10 +1255,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:00</t>
-        </is>
+      <c r="C42" s="2" t="n">
+        <v>45911.54166666666</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -1350,10 +1274,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:30</t>
-        </is>
+      <c r="C43" s="2" t="n">
+        <v>45911.5625</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -1371,10 +1293,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2025-09-11 14:30</t>
-        </is>
+      <c r="C44" s="2" t="n">
+        <v>45911.60416666666</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1394,10 +1314,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:00</t>
-        </is>
+      <c r="C45" s="2" t="n">
+        <v>45911.625</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -1415,10 +1333,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:30</t>
-        </is>
+      <c r="C46" s="2" t="n">
+        <v>45911.64583333334</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1438,10 +1354,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2025-09-12 09:00</t>
-        </is>
+      <c r="C47" s="2" t="n">
+        <v>45912.375</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -1459,10 +1373,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2025-09-12 09:30</t>
-        </is>
+      <c r="C48" s="2" t="n">
+        <v>45912.39583333334</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -1480,10 +1392,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:00</t>
-        </is>
+      <c r="C49" s="2" t="n">
+        <v>45912.41666666666</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -1501,10 +1411,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:30</t>
-        </is>
+      <c r="C50" s="2" t="n">
+        <v>45912.4375</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -1522,10 +1430,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2025-09-12 11:30</t>
-        </is>
+      <c r="C51" s="2" t="n">
+        <v>45912.47916666666</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -1543,10 +1449,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:30</t>
-        </is>
+      <c r="C52" s="2" t="n">
+        <v>45912.5625</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -1564,10 +1468,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:00</t>
-        </is>
+      <c r="C53" s="2" t="n">
+        <v>45912.58333333334</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1587,10 +1489,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:00</t>
-        </is>
+      <c r="C54" s="2" t="n">
+        <v>45912.625</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1610,10 +1510,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:30</t>
-        </is>
+      <c r="C55" s="2" t="n">
+        <v>45906.39583333334</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -1631,10 +1529,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2025-09-06 10:30</t>
-        </is>
+      <c r="C56" s="2" t="n">
+        <v>45906.4375</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -1654,10 +1550,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:00</t>
-        </is>
+      <c r="C57" s="2" t="n">
+        <v>45906.45833333334</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -1675,10 +1569,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:30</t>
-        </is>
+      <c r="C58" s="2" t="n">
+        <v>45906.47916666666</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -1696,10 +1588,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2025-09-06 13:00</t>
-        </is>
+      <c r="C59" s="2" t="n">
+        <v>45906.54166666666</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -1717,10 +1607,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:00</t>
-        </is>
+      <c r="C60" s="2" t="n">
+        <v>45906.58333333334</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -1740,10 +1628,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:00</t>
-        </is>
+      <c r="C61" s="2" t="n">
+        <v>45906.625</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -1761,10 +1647,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:30</t>
-        </is>
+      <c r="C62" s="2" t="n">
+        <v>45906.64583333334</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -1782,10 +1666,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2025-09-07 09:00</t>
-        </is>
+      <c r="C63" s="2" t="n">
+        <v>45907.375</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -1803,10 +1685,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:00</t>
-        </is>
+      <c r="C64" s="2" t="n">
+        <v>45907.41666666666</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -1826,10 +1706,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:30</t>
-        </is>
+      <c r="C65" s="2" t="n">
+        <v>45907.4375</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -1847,10 +1725,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2025-09-07 11:00</t>
-        </is>
+      <c r="C66" s="2" t="n">
+        <v>45907.45833333334</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -1868,10 +1744,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2025-09-07 11:30</t>
-        </is>
+      <c r="C67" s="2" t="n">
+        <v>45907.47916666666</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -1889,10 +1763,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:00</t>
-        </is>
+      <c r="C68" s="2" t="n">
+        <v>45907.58333333334</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -1910,10 +1782,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:00</t>
-        </is>
+      <c r="C69" s="2" t="n">
+        <v>45907.625</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -1933,10 +1803,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:30</t>
-        </is>
+      <c r="C70" s="2" t="n">
+        <v>45907.64583333334</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -1956,10 +1824,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:00</t>
-        </is>
+      <c r="C71" s="2" t="n">
+        <v>45908.41666666666</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -1977,10 +1843,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:30</t>
-        </is>
+      <c r="C72" s="2" t="n">
+        <v>45908.5625</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -1998,10 +1862,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2025-09-08 14:00</t>
-        </is>
+      <c r="C73" s="2" t="n">
+        <v>45908.58333333334</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -2021,10 +1883,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2025-09-08 14:30</t>
-        </is>
+      <c r="C74" s="2" t="n">
+        <v>45908.60416666666</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -2044,10 +1904,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:00</t>
-        </is>
+      <c r="C75" s="2" t="n">
+        <v>45908.625</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
@@ -2065,10 +1923,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:30</t>
-        </is>
+      <c r="C76" s="2" t="n">
+        <v>45908.64583333334</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -2086,10 +1942,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:00</t>
-        </is>
+      <c r="C77" s="2" t="n">
+        <v>45909.375</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -2107,10 +1961,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
+      <c r="C78" s="2" t="n">
+        <v>45909.39583333334</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -2128,10 +1980,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:30</t>
-        </is>
+      <c r="C79" s="2" t="n">
+        <v>45909.47916666666</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -2149,10 +1999,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:30</t>
-        </is>
+      <c r="C80" s="2" t="n">
+        <v>45909.5625</v>
       </c>
       <c r="D80" t="b">
         <v>1</v>
@@ -2170,10 +2018,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2025-09-09 14:00</t>
-        </is>
+      <c r="C81" s="2" t="n">
+        <v>45909.58333333334</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -2191,10 +2037,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2025-09-09 14:30</t>
-        </is>
+      <c r="C82" s="2" t="n">
+        <v>45909.60416666666</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -2214,10 +2058,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:00</t>
-        </is>
+      <c r="C83" s="2" t="n">
+        <v>45909.625</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -2235,10 +2077,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:30</t>
-        </is>
+      <c r="C84" s="2" t="n">
+        <v>45909.64583333334</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -2258,10 +2098,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:30</t>
-        </is>
+      <c r="C85" s="2" t="n">
+        <v>45910.4375</v>
       </c>
       <c r="D85" t="b">
         <v>1</v>
@@ -2279,10 +2117,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:00</t>
-        </is>
+      <c r="C86" s="2" t="n">
+        <v>45910.45833333334</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -2302,10 +2138,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2025-09-10 13:30</t>
-        </is>
+      <c r="C87" s="2" t="n">
+        <v>45910.5625</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -2323,10 +2157,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:00</t>
-        </is>
+      <c r="C88" s="2" t="n">
+        <v>45910.58333333334</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -2344,10 +2176,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:30</t>
-        </is>
+      <c r="C89" s="2" t="n">
+        <v>45910.60416666666</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -2365,10 +2195,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:00</t>
-        </is>
+      <c r="C90" s="2" t="n">
+        <v>45910.625</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -2386,10 +2214,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2025-09-11 09:30</t>
-        </is>
+      <c r="C91" s="2" t="n">
+        <v>45911.39583333334</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -2407,10 +2233,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2025-09-11 10:30</t>
-        </is>
+      <c r="C92" s="2" t="n">
+        <v>45911.4375</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -2430,10 +2254,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:30</t>
-        </is>
+      <c r="C93" s="2" t="n">
+        <v>45911.47916666666</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -2451,10 +2273,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:00</t>
-        </is>
+      <c r="C94" s="2" t="n">
+        <v>45911.54166666666</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -2472,10 +2292,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2025-09-11 14:30</t>
-        </is>
+      <c r="C95" s="2" t="n">
+        <v>45911.60416666666</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -2493,10 +2311,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:00</t>
-        </is>
+      <c r="C96" s="2" t="n">
+        <v>45911.625</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -2516,10 +2332,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:00</t>
-        </is>
+      <c r="C97" s="2" t="n">
+        <v>45912.41666666666</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -2537,10 +2351,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:30</t>
-        </is>
+      <c r="C98" s="2" t="n">
+        <v>45912.4375</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
@@ -2558,10 +2370,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:30</t>
-        </is>
+      <c r="C99" s="2" t="n">
+        <v>45912.5625</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -2581,10 +2391,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:00</t>
-        </is>
+      <c r="C100" s="2" t="n">
+        <v>45912.58333333334</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -2602,10 +2410,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:00</t>
-        </is>
+      <c r="C101" s="2" t="n">
+        <v>45912.625</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -2625,10 +2431,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:30</t>
-        </is>
+      <c r="C102" s="2" t="n">
+        <v>45912.64583333334</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -2646,10 +2450,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:00</t>
-        </is>
+      <c r="C103" s="2" t="n">
+        <v>45906.375</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -2667,10 +2469,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:30</t>
-        </is>
+      <c r="C104" s="2" t="n">
+        <v>45906.39583333334</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
@@ -2688,10 +2488,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2025-09-06 10:00</t>
-        </is>
+      <c r="C105" s="2" t="n">
+        <v>45906.41666666666</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -2709,10 +2507,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2025-09-06 10:30</t>
-        </is>
+      <c r="C106" s="2" t="n">
+        <v>45906.4375</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -2730,10 +2526,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:30</t>
-        </is>
+      <c r="C107" s="2" t="n">
+        <v>45906.47916666666</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -2753,10 +2547,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2025-09-06 13:00</t>
-        </is>
+      <c r="C108" s="2" t="n">
+        <v>45906.54166666666</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -2776,10 +2568,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:00</t>
-        </is>
+      <c r="C109" s="2" t="n">
+        <v>45906.58333333334</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -2797,10 +2587,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:30</t>
-        </is>
+      <c r="C110" s="2" t="n">
+        <v>45906.64583333334</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -2818,10 +2606,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>2025-09-07 09:00</t>
-        </is>
+      <c r="C111" s="2" t="n">
+        <v>45907.375</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -2839,10 +2625,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2025-09-07 09:30</t>
-        </is>
+      <c r="C112" s="2" t="n">
+        <v>45907.39583333334</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -2860,10 +2644,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:00</t>
-        </is>
+      <c r="C113" s="2" t="n">
+        <v>45907.41666666666</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -2883,10 +2665,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:30</t>
-        </is>
+      <c r="C114" s="2" t="n">
+        <v>45907.4375</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -2904,10 +2684,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:30</t>
-        </is>
+      <c r="C115" s="2" t="n">
+        <v>45907.5625</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -2925,10 +2703,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:00</t>
-        </is>
+      <c r="C116" s="2" t="n">
+        <v>45907.58333333334</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -2948,10 +2724,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:00</t>
-        </is>
+      <c r="C117" s="2" t="n">
+        <v>45907.625</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
@@ -2969,10 +2743,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:30</t>
-        </is>
+      <c r="C118" s="2" t="n">
+        <v>45907.64583333334</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
@@ -2992,10 +2764,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>2025-09-08 09:00</t>
-        </is>
+      <c r="C119" s="2" t="n">
+        <v>45908.375</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
@@ -3015,10 +2785,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2025-09-08 09:30</t>
-        </is>
+      <c r="C120" s="2" t="n">
+        <v>45908.39583333334</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -3036,10 +2804,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:30</t>
-        </is>
+      <c r="C121" s="2" t="n">
+        <v>45908.4375</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
@@ -3057,10 +2823,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:00</t>
-        </is>
+      <c r="C122" s="2" t="n">
+        <v>45908.54166666666</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -3078,10 +2842,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>2025-09-08 14:30</t>
-        </is>
+      <c r="C123" s="2" t="n">
+        <v>45908.60416666666</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -3099,10 +2861,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:30</t>
-        </is>
+      <c r="C124" s="2" t="n">
+        <v>45908.64583333334</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -3120,10 +2880,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
+      <c r="C125" s="2" t="n">
+        <v>45909.39583333334</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
@@ -3141,10 +2899,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2025-09-09 10:00</t>
-        </is>
+      <c r="C126" s="2" t="n">
+        <v>45909.41666666666</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
@@ -3162,10 +2918,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2025-09-09 10:30</t>
-        </is>
+      <c r="C127" s="2" t="n">
+        <v>45909.4375</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
@@ -3183,10 +2937,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:00</t>
-        </is>
+      <c r="C128" s="2" t="n">
+        <v>45909.45833333334</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -3206,10 +2958,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:30</t>
-        </is>
+      <c r="C129" s="2" t="n">
+        <v>45909.47916666666</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
@@ -3227,10 +2977,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:30</t>
-        </is>
+      <c r="C130" s="2" t="n">
+        <v>45909.5625</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
@@ -3248,10 +2996,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>2025-09-09 14:30</t>
-        </is>
+      <c r="C131" s="2" t="n">
+        <v>45909.60416666666</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -3269,10 +3015,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:30</t>
-        </is>
+      <c r="C132" s="2" t="n">
+        <v>45909.64583333334</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -3290,10 +3034,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2025-09-10 09:00</t>
-        </is>
+      <c r="C133" s="2" t="n">
+        <v>45910.375</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -3311,10 +3053,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2025-09-10 09:30</t>
-        </is>
+      <c r="C134" s="2" t="n">
+        <v>45910.39583333334</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -3332,10 +3072,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:00</t>
-        </is>
+      <c r="C135" s="2" t="n">
+        <v>45910.41666666666</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
@@ -3353,10 +3091,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:30</t>
-        </is>
+      <c r="C136" s="2" t="n">
+        <v>45910.4375</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
@@ -3374,10 +3110,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:00</t>
-        </is>
+      <c r="C137" s="2" t="n">
+        <v>45910.45833333334</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -3397,10 +3131,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:30</t>
-        </is>
+      <c r="C138" s="2" t="n">
+        <v>45910.47916666666</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -3418,10 +3150,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:00</t>
-        </is>
+      <c r="C139" s="2" t="n">
+        <v>45910.58333333334</v>
       </c>
       <c r="D139" t="b">
         <v>1</v>
@@ -3439,10 +3169,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:00</t>
-        </is>
+      <c r="C140" s="2" t="n">
+        <v>45910.625</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
@@ -3460,10 +3188,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2025-09-11 09:30</t>
-        </is>
+      <c r="C141" s="2" t="n">
+        <v>45911.39583333334</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -3481,10 +3207,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2025-09-11 10:00</t>
-        </is>
+      <c r="C142" s="2" t="n">
+        <v>45911.41666666666</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -3502,10 +3226,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:00</t>
-        </is>
+      <c r="C143" s="2" t="n">
+        <v>45911.45833333334</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -3525,10 +3247,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:30</t>
-        </is>
+      <c r="C144" s="2" t="n">
+        <v>45911.47916666666</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -3546,10 +3266,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:30</t>
-        </is>
+      <c r="C145" s="2" t="n">
+        <v>45911.5625</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
@@ -3569,10 +3287,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>2025-09-11 14:00</t>
-        </is>
+      <c r="C146" s="2" t="n">
+        <v>45911.58333333334</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -3590,10 +3306,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>2025-09-11 14:30</t>
-        </is>
+      <c r="C147" s="2" t="n">
+        <v>45911.60416666666</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
@@ -3613,10 +3327,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:30</t>
-        </is>
+      <c r="C148" s="2" t="n">
+        <v>45911.64583333334</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -3634,10 +3346,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>2025-09-12 09:00</t>
-        </is>
+      <c r="C149" s="2" t="n">
+        <v>45912.375</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
@@ -3655,10 +3365,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:00</t>
-        </is>
+      <c r="C150" s="2" t="n">
+        <v>45912.41666666666</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
@@ -3676,10 +3384,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2025-09-12 11:00</t>
-        </is>
+      <c r="C151" s="2" t="n">
+        <v>45912.45833333334</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -3699,10 +3405,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>2025-09-12 11:30</t>
-        </is>
+      <c r="C152" s="2" t="n">
+        <v>45912.47916666666</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
@@ -3720,10 +3424,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:30</t>
-        </is>
+      <c r="C153" s="2" t="n">
+        <v>45912.5625</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
@@ -3741,10 +3443,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:00</t>
-        </is>
+      <c r="C154" s="2" t="n">
+        <v>45912.58333333334</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -3764,10 +3464,8 @@
           <t>Pediatrics</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:00</t>
-        </is>
+      <c r="C155" s="2" t="n">
+        <v>45912.625</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -3785,10 +3483,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:00</t>
-        </is>
+      <c r="C156" s="2" t="n">
+        <v>45906.375</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -3806,10 +3502,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>2025-09-06 10:00</t>
-        </is>
+      <c r="C157" s="2" t="n">
+        <v>45906.41666666666</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -3829,10 +3523,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>2025-09-06 13:00</t>
-        </is>
+      <c r="C158" s="2" t="n">
+        <v>45906.54166666666</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -3852,10 +3544,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>2025-09-06 13:30</t>
-        </is>
+      <c r="C159" s="2" t="n">
+        <v>45906.5625</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
@@ -3873,10 +3563,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:00</t>
-        </is>
+      <c r="C160" s="2" t="n">
+        <v>45906.58333333334</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -3894,10 +3582,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:30</t>
-        </is>
+      <c r="C161" s="2" t="n">
+        <v>45906.60416666666</v>
       </c>
       <c r="D161" t="b">
         <v>1</v>
@@ -3915,10 +3601,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:30</t>
-        </is>
+      <c r="C162" s="2" t="n">
+        <v>45906.64583333334</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
@@ -3936,10 +3620,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2025-09-07 09:00</t>
-        </is>
+      <c r="C163" s="2" t="n">
+        <v>45907.375</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
@@ -3957,10 +3639,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:00</t>
-        </is>
+      <c r="C164" s="2" t="n">
+        <v>45907.41666666666</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -3980,10 +3660,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:30</t>
-        </is>
+      <c r="C165" s="2" t="n">
+        <v>45907.4375</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
@@ -4003,10 +3681,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:00</t>
-        </is>
+      <c r="C166" s="2" t="n">
+        <v>45907.58333333334</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -4026,10 +3702,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:30</t>
-        </is>
+      <c r="C167" s="2" t="n">
+        <v>45907.60416666666</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -4047,10 +3721,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:00</t>
-        </is>
+      <c r="C168" s="2" t="n">
+        <v>45907.625</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -4070,10 +3742,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:30</t>
-        </is>
+      <c r="C169" s="2" t="n">
+        <v>45907.64583333334</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
@@ -4093,10 +3763,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2025-09-08 09:30</t>
-        </is>
+      <c r="C170" s="2" t="n">
+        <v>45908.39583333334</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -4114,10 +3782,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:30</t>
-        </is>
+      <c r="C171" s="2" t="n">
+        <v>45908.4375</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -4135,10 +3801,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:00</t>
-        </is>
+      <c r="C172" s="2" t="n">
+        <v>45908.45833333334</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -4156,10 +3820,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:30</t>
-        </is>
+      <c r="C173" s="2" t="n">
+        <v>45908.47916666666</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -4179,10 +3841,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:30</t>
-        </is>
+      <c r="C174" s="2" t="n">
+        <v>45908.5625</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -4200,10 +3860,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:30</t>
-        </is>
+      <c r="C175" s="2" t="n">
+        <v>45908.64583333334</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -4221,10 +3879,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:00</t>
-        </is>
+      <c r="C176" s="2" t="n">
+        <v>45909.375</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -4242,10 +3898,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
+      <c r="C177" s="2" t="n">
+        <v>45909.39583333334</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -4265,10 +3919,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>2025-09-09 10:00</t>
-        </is>
+      <c r="C178" s="2" t="n">
+        <v>45909.41666666666</v>
       </c>
       <c r="D178" t="b">
         <v>1</v>
@@ -4286,10 +3938,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:30</t>
-        </is>
+      <c r="C179" s="2" t="n">
+        <v>45909.47916666666</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -4307,10 +3957,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:30</t>
-        </is>
+      <c r="C180" s="2" t="n">
+        <v>45909.5625</v>
       </c>
       <c r="D180" t="b">
         <v>0</v>
@@ -4330,10 +3978,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>2025-09-09 14:00</t>
-        </is>
+      <c r="C181" s="2" t="n">
+        <v>45909.58333333334</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
@@ -4351,10 +3997,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:00</t>
-        </is>
+      <c r="C182" s="2" t="n">
+        <v>45909.625</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
@@ -4374,10 +4018,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2025-09-10 09:00</t>
-        </is>
+      <c r="C183" s="2" t="n">
+        <v>45910.375</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
@@ -4397,10 +4039,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:30</t>
-        </is>
+      <c r="C184" s="2" t="n">
+        <v>45910.4375</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
@@ -4418,10 +4058,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:00</t>
-        </is>
+      <c r="C185" s="2" t="n">
+        <v>45910.45833333334</v>
       </c>
       <c r="D185" t="b">
         <v>0</v>
@@ -4441,10 +4079,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>2025-09-10 13:00</t>
-        </is>
+      <c r="C186" s="2" t="n">
+        <v>45910.54166666666</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -4462,10 +4098,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:00</t>
-        </is>
+      <c r="C187" s="2" t="n">
+        <v>45910.58333333334</v>
       </c>
       <c r="D187" t="b">
         <v>1</v>
@@ -4483,10 +4117,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:30</t>
-        </is>
+      <c r="C188" s="2" t="n">
+        <v>45910.60416666666</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
@@ -4504,10 +4136,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:30</t>
-        </is>
+      <c r="C189" s="2" t="n">
+        <v>45910.64583333334</v>
       </c>
       <c r="D189" t="b">
         <v>1</v>
@@ -4525,10 +4155,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>2025-09-11 09:30</t>
-        </is>
+      <c r="C190" s="2" t="n">
+        <v>45911.39583333334</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
@@ -4546,10 +4174,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>2025-09-11 10:30</t>
-        </is>
+      <c r="C191" s="2" t="n">
+        <v>45911.4375</v>
       </c>
       <c r="D191" t="b">
         <v>1</v>
@@ -4567,10 +4193,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:00</t>
-        </is>
+      <c r="C192" s="2" t="n">
+        <v>45911.45833333334</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
@@ -4588,10 +4212,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:30</t>
-        </is>
+      <c r="C193" s="2" t="n">
+        <v>45911.47916666666</v>
       </c>
       <c r="D193" t="b">
         <v>1</v>
@@ -4609,10 +4231,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>2025-09-11 14:00</t>
-        </is>
+      <c r="C194" s="2" t="n">
+        <v>45911.58333333334</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
@@ -4630,10 +4250,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>2025-09-11 14:30</t>
-        </is>
+      <c r="C195" s="2" t="n">
+        <v>45911.60416666666</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
@@ -4651,10 +4269,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:00</t>
-        </is>
+      <c r="C196" s="2" t="n">
+        <v>45911.625</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
@@ -4674,10 +4290,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>2025-09-12 09:00</t>
-        </is>
+      <c r="C197" s="2" t="n">
+        <v>45912.375</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -4695,10 +4309,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>2025-09-12 09:30</t>
-        </is>
+      <c r="C198" s="2" t="n">
+        <v>45912.39583333334</v>
       </c>
       <c r="D198" t="b">
         <v>1</v>
@@ -4716,10 +4328,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:00</t>
-        </is>
+      <c r="C199" s="2" t="n">
+        <v>45912.41666666666</v>
       </c>
       <c r="D199" t="b">
         <v>1</v>
@@ -4737,10 +4347,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>2025-09-12 11:00</t>
-        </is>
+      <c r="C200" s="2" t="n">
+        <v>45912.45833333334</v>
       </c>
       <c r="D200" t="b">
         <v>1</v>
@@ -4758,10 +4366,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:00</t>
-        </is>
+      <c r="C201" s="2" t="n">
+        <v>45912.54166666666</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
@@ -4779,10 +4385,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:00</t>
-        </is>
+      <c r="C202" s="2" t="n">
+        <v>45912.58333333334</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -4800,10 +4404,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:30</t>
-        </is>
+      <c r="C203" s="2" t="n">
+        <v>45912.60416666666</v>
       </c>
       <c r="D203" t="b">
         <v>1</v>
@@ -4821,10 +4423,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:30</t>
-        </is>
+      <c r="C204" s="2" t="n">
+        <v>45912.64583333334</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
@@ -4844,10 +4444,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:00</t>
-        </is>
+      <c r="C205" s="2" t="n">
+        <v>45906.375</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
@@ -4867,10 +4465,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:30</t>
-        </is>
+      <c r="C206" s="2" t="n">
+        <v>45906.39583333334</v>
       </c>
       <c r="D206" t="b">
         <v>1</v>
@@ -4888,10 +4484,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:00</t>
-        </is>
+      <c r="C207" s="2" t="n">
+        <v>45906.45833333334</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
@@ -4909,10 +4503,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:30</t>
-        </is>
+      <c r="C208" s="2" t="n">
+        <v>45906.47916666666</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -4932,10 +4524,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:00</t>
-        </is>
+      <c r="C209" s="2" t="n">
+        <v>45906.58333333334</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
@@ -4953,10 +4543,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:00</t>
-        </is>
+      <c r="C210" s="2" t="n">
+        <v>45906.625</v>
       </c>
       <c r="D210" t="b">
         <v>1</v>
@@ -4974,10 +4562,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>2025-09-07 09:30</t>
-        </is>
+      <c r="C211" s="2" t="n">
+        <v>45907.39583333334</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
@@ -4995,10 +4581,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:30</t>
-        </is>
+      <c r="C212" s="2" t="n">
+        <v>45907.4375</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
@@ -5016,10 +4600,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>2025-09-07 11:30</t>
-        </is>
+      <c r="C213" s="2" t="n">
+        <v>45907.47916666666</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -5037,10 +4619,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:00</t>
-        </is>
+      <c r="C214" s="2" t="n">
+        <v>45907.54166666666</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
@@ -5058,10 +4638,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:30</t>
-        </is>
+      <c r="C215" s="2" t="n">
+        <v>45907.5625</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -5081,10 +4659,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:00</t>
-        </is>
+      <c r="C216" s="2" t="n">
+        <v>45907.58333333334</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
@@ -5104,10 +4680,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:30</t>
-        </is>
+      <c r="C217" s="2" t="n">
+        <v>45907.60416666666</v>
       </c>
       <c r="D217" t="b">
         <v>1</v>
@@ -5125,10 +4699,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>2025-09-08 09:00</t>
-        </is>
+      <c r="C218" s="2" t="n">
+        <v>45908.375</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
@@ -5146,10 +4718,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:30</t>
-        </is>
+      <c r="C219" s="2" t="n">
+        <v>45908.4375</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
@@ -5167,10 +4737,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:00</t>
-        </is>
+      <c r="C220" s="2" t="n">
+        <v>45908.54166666666</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
@@ -5188,10 +4756,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:30</t>
-        </is>
+      <c r="C221" s="2" t="n">
+        <v>45908.5625</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
@@ -5209,10 +4775,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>2025-09-08 14:00</t>
-        </is>
+      <c r="C222" s="2" t="n">
+        <v>45908.58333333334</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -5230,10 +4794,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:30</t>
-        </is>
+      <c r="C223" s="2" t="n">
+        <v>45908.64583333334</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
@@ -5251,10 +4813,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
+      <c r="C224" s="2" t="n">
+        <v>45909.39583333334</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
@@ -5274,10 +4834,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:30</t>
-        </is>
+      <c r="C225" s="2" t="n">
+        <v>45909.47916666666</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
@@ -5295,10 +4853,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:00</t>
-        </is>
+      <c r="C226" s="2" t="n">
+        <v>45909.54166666666</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
@@ -5316,10 +4872,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:30</t>
-        </is>
+      <c r="C227" s="2" t="n">
+        <v>45909.5625</v>
       </c>
       <c r="D227" t="b">
         <v>1</v>
@@ -5337,10 +4891,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>2025-09-09 14:00</t>
-        </is>
+      <c r="C228" s="2" t="n">
+        <v>45909.58333333334</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
@@ -5360,10 +4912,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>2025-09-09 14:30</t>
-        </is>
+      <c r="C229" s="2" t="n">
+        <v>45909.60416666666</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -5381,10 +4931,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:00</t>
-        </is>
+      <c r="C230" s="2" t="n">
+        <v>45909.625</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
@@ -5402,10 +4950,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>2025-09-10 09:30</t>
-        </is>
+      <c r="C231" s="2" t="n">
+        <v>45910.39583333334</v>
       </c>
       <c r="D231" t="b">
         <v>1</v>
@@ -5423,10 +4969,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:00</t>
-        </is>
+      <c r="C232" s="2" t="n">
+        <v>45910.41666666666</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
@@ -5444,10 +4988,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:30</t>
-        </is>
+      <c r="C233" s="2" t="n">
+        <v>45910.4375</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
@@ -5465,10 +5007,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:00</t>
-        </is>
+      <c r="C234" s="2" t="n">
+        <v>45910.45833333334</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -5486,10 +5026,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:30</t>
-        </is>
+      <c r="C235" s="2" t="n">
+        <v>45910.47916666666</v>
       </c>
       <c r="D235" t="b">
         <v>1</v>
@@ -5507,10 +5045,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:00</t>
-        </is>
+      <c r="C236" s="2" t="n">
+        <v>45910.58333333334</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -5528,10 +5064,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:00</t>
-        </is>
+      <c r="C237" s="2" t="n">
+        <v>45910.625</v>
       </c>
       <c r="D237" t="b">
         <v>1</v>
@@ -5549,10 +5083,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>2025-09-11 09:00</t>
-        </is>
+      <c r="C238" s="2" t="n">
+        <v>45911.375</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
@@ -5572,10 +5104,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>2025-09-11 10:30</t>
-        </is>
+      <c r="C239" s="2" t="n">
+        <v>45911.4375</v>
       </c>
       <c r="D239" t="b">
         <v>0</v>
@@ -5595,10 +5125,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:00</t>
-        </is>
+      <c r="C240" s="2" t="n">
+        <v>45911.45833333334</v>
       </c>
       <c r="D240" t="b">
         <v>1</v>
@@ -5616,10 +5144,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:00</t>
-        </is>
+      <c r="C241" s="2" t="n">
+        <v>45911.54166666666</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
@@ -5637,10 +5163,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:30</t>
-        </is>
+      <c r="C242" s="2" t="n">
+        <v>45911.5625</v>
       </c>
       <c r="D242" t="b">
         <v>0</v>
@@ -5660,10 +5184,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>2025-09-11 14:00</t>
-        </is>
+      <c r="C243" s="2" t="n">
+        <v>45911.58333333334</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
@@ -5683,10 +5205,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:30</t>
-        </is>
+      <c r="C244" s="2" t="n">
+        <v>45911.64583333334</v>
       </c>
       <c r="D244" t="b">
         <v>1</v>
@@ -5704,10 +5224,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:00</t>
-        </is>
+      <c r="C245" s="2" t="n">
+        <v>45912.41666666666</v>
       </c>
       <c r="D245" t="b">
         <v>1</v>
@@ -5725,10 +5243,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:30</t>
-        </is>
+      <c r="C246" s="2" t="n">
+        <v>45912.4375</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -5746,10 +5262,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>2025-09-12 11:30</t>
-        </is>
+      <c r="C247" s="2" t="n">
+        <v>45912.47916666666</v>
       </c>
       <c r="D247" t="b">
         <v>1</v>
@@ -5767,10 +5281,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:30</t>
-        </is>
+      <c r="C248" s="2" t="n">
+        <v>45912.5625</v>
       </c>
       <c r="D248" t="b">
         <v>1</v>
@@ -5788,10 +5300,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:00</t>
-        </is>
+      <c r="C249" s="2" t="n">
+        <v>45912.58333333334</v>
       </c>
       <c r="D249" t="b">
         <v>1</v>
@@ -5809,10 +5319,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:30</t>
-        </is>
+      <c r="C250" s="2" t="n">
+        <v>45912.60416666666</v>
       </c>
       <c r="D250" t="b">
         <v>1</v>
@@ -5830,10 +5338,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:00</t>
-        </is>
+      <c r="C251" s="2" t="n">
+        <v>45912.625</v>
       </c>
       <c r="D251" t="b">
         <v>1</v>
@@ -5851,10 +5357,8 @@
           <t>Orthopedics</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:30</t>
-        </is>
+      <c r="C252" s="2" t="n">
+        <v>45912.64583333334</v>
       </c>
       <c r="D252" t="b">
         <v>1</v>
@@ -5872,10 +5376,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:00</t>
-        </is>
+      <c r="C253" s="2" t="n">
+        <v>45906.375</v>
       </c>
       <c r="D253" t="b">
         <v>1</v>
@@ -5893,10 +5395,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:30</t>
-        </is>
+      <c r="C254" s="2" t="n">
+        <v>45906.39583333334</v>
       </c>
       <c r="D254" t="b">
         <v>0</v>
@@ -5916,10 +5416,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:30</t>
-        </is>
+      <c r="C255" s="2" t="n">
+        <v>45906.47916666666</v>
       </c>
       <c r="D255" t="b">
         <v>1</v>
@@ -5937,10 +5435,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>2025-09-06 13:00</t>
-        </is>
+      <c r="C256" s="2" t="n">
+        <v>45906.54166666666</v>
       </c>
       <c r="D256" t="b">
         <v>1</v>
@@ -5958,10 +5454,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:30</t>
-        </is>
+      <c r="C257" s="2" t="n">
+        <v>45906.60416666666</v>
       </c>
       <c r="D257" t="b">
         <v>1</v>
@@ -5979,10 +5473,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:00</t>
-        </is>
+      <c r="C258" s="2" t="n">
+        <v>45906.625</v>
       </c>
       <c r="D258" t="b">
         <v>1</v>
@@ -6000,10 +5492,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>2025-09-07 09:00</t>
-        </is>
+      <c r="C259" s="2" t="n">
+        <v>45907.375</v>
       </c>
       <c r="D259" t="b">
         <v>1</v>
@@ -6021,10 +5511,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>2025-09-07 09:30</t>
-        </is>
+      <c r="C260" s="2" t="n">
+        <v>45907.39583333334</v>
       </c>
       <c r="D260" t="b">
         <v>0</v>
@@ -6044,10 +5532,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>2025-09-07 11:00</t>
-        </is>
+      <c r="C261" s="2" t="n">
+        <v>45907.45833333334</v>
       </c>
       <c r="D261" t="b">
         <v>1</v>
@@ -6065,10 +5551,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>2025-09-07 11:30</t>
-        </is>
+      <c r="C262" s="2" t="n">
+        <v>45907.47916666666</v>
       </c>
       <c r="D262" t="b">
         <v>1</v>
@@ -6086,10 +5570,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:00</t>
-        </is>
+      <c r="C263" s="2" t="n">
+        <v>45907.54166666666</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
@@ -6109,10 +5591,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:30</t>
-        </is>
+      <c r="C264" s="2" t="n">
+        <v>45907.5625</v>
       </c>
       <c r="D264" t="b">
         <v>0</v>
@@ -6132,10 +5612,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:30</t>
-        </is>
+      <c r="C265" s="2" t="n">
+        <v>45907.64583333334</v>
       </c>
       <c r="D265" t="b">
         <v>1</v>
@@ -6153,10 +5631,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:00</t>
-        </is>
+      <c r="C266" s="2" t="n">
+        <v>45908.41666666666</v>
       </c>
       <c r="D266" t="b">
         <v>1</v>
@@ -6174,10 +5650,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:30</t>
-        </is>
+      <c r="C267" s="2" t="n">
+        <v>45908.4375</v>
       </c>
       <c r="D267" t="b">
         <v>0</v>
@@ -6197,10 +5671,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:30</t>
-        </is>
+      <c r="C268" s="2" t="n">
+        <v>45908.47916666666</v>
       </c>
       <c r="D268" t="b">
         <v>1</v>
@@ -6218,10 +5690,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:30</t>
-        </is>
+      <c r="C269" s="2" t="n">
+        <v>45908.5625</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
@@ -6241,10 +5711,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>2025-09-08 14:30</t>
-        </is>
+      <c r="C270" s="2" t="n">
+        <v>45908.60416666666</v>
       </c>
       <c r="D270" t="b">
         <v>1</v>
@@ -6262,10 +5730,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:00</t>
-        </is>
+      <c r="C271" s="2" t="n">
+        <v>45908.625</v>
       </c>
       <c r="D271" t="b">
         <v>0</v>
@@ -6285,10 +5751,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:00</t>
-        </is>
+      <c r="C272" s="2" t="n">
+        <v>45909.375</v>
       </c>
       <c r="D272" t="b">
         <v>1</v>
@@ -6306,10 +5770,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
+      <c r="C273" s="2" t="n">
+        <v>45909.39583333334</v>
       </c>
       <c r="D273" t="b">
         <v>0</v>
@@ -6329,10 +5791,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>2025-09-09 10:00</t>
-        </is>
+      <c r="C274" s="2" t="n">
+        <v>45909.41666666666</v>
       </c>
       <c r="D274" t="b">
         <v>0</v>
@@ -6352,10 +5812,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:00</t>
-        </is>
+      <c r="C275" s="2" t="n">
+        <v>45909.45833333334</v>
       </c>
       <c r="D275" t="b">
         <v>1</v>
@@ -6373,10 +5831,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:30</t>
-        </is>
+      <c r="C276" s="2" t="n">
+        <v>45909.5625</v>
       </c>
       <c r="D276" t="b">
         <v>1</v>
@@ -6394,10 +5850,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:00</t>
-        </is>
+      <c r="C277" s="2" t="n">
+        <v>45909.625</v>
       </c>
       <c r="D277" t="b">
         <v>1</v>
@@ -6415,10 +5869,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>2025-09-10 09:00</t>
-        </is>
+      <c r="C278" s="2" t="n">
+        <v>45910.375</v>
       </c>
       <c r="D278" t="b">
         <v>1</v>
@@ -6436,10 +5888,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>2025-09-10 09:30</t>
-        </is>
+      <c r="C279" s="2" t="n">
+        <v>45910.39583333334</v>
       </c>
       <c r="D279" t="b">
         <v>1</v>
@@ -6457,10 +5907,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:00</t>
-        </is>
+      <c r="C280" s="2" t="n">
+        <v>45910.41666666666</v>
       </c>
       <c r="D280" t="b">
         <v>1</v>
@@ -6478,10 +5926,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:00</t>
-        </is>
+      <c r="C281" s="2" t="n">
+        <v>45910.45833333334</v>
       </c>
       <c r="D281" t="b">
         <v>1</v>
@@ -6499,10 +5945,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:30</t>
-        </is>
+      <c r="C282" s="2" t="n">
+        <v>45910.60416666666</v>
       </c>
       <c r="D282" t="b">
         <v>1</v>
@@ -6520,10 +5964,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:30</t>
-        </is>
+      <c r="C283" s="2" t="n">
+        <v>45910.64583333334</v>
       </c>
       <c r="D283" t="b">
         <v>1</v>
@@ -6541,10 +5983,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>2025-09-11 09:30</t>
-        </is>
+      <c r="C284" s="2" t="n">
+        <v>45911.39583333334</v>
       </c>
       <c r="D284" t="b">
         <v>0</v>
@@ -6564,10 +6004,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>2025-09-11 10:00</t>
-        </is>
+      <c r="C285" s="2" t="n">
+        <v>45911.41666666666</v>
       </c>
       <c r="D285" t="b">
         <v>1</v>
@@ -6585,10 +6023,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>2025-09-11 10:30</t>
-        </is>
+      <c r="C286" s="2" t="n">
+        <v>45911.4375</v>
       </c>
       <c r="D286" t="b">
         <v>0</v>
@@ -6608,10 +6044,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:30</t>
-        </is>
+      <c r="C287" s="2" t="n">
+        <v>45911.47916666666</v>
       </c>
       <c r="D287" t="b">
         <v>0</v>
@@ -6631,10 +6065,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:00</t>
-        </is>
+      <c r="C288" s="2" t="n">
+        <v>45911.54166666666</v>
       </c>
       <c r="D288" t="b">
         <v>1</v>
@@ -6652,10 +6084,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:30</t>
-        </is>
+      <c r="C289" s="2" t="n">
+        <v>45911.5625</v>
       </c>
       <c r="D289" t="b">
         <v>0</v>
@@ -6675,10 +6105,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:30</t>
-        </is>
+      <c r="C290" s="2" t="n">
+        <v>45911.64583333334</v>
       </c>
       <c r="D290" t="b">
         <v>1</v>
@@ -6696,10 +6124,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>2025-09-12 09:30</t>
-        </is>
+      <c r="C291" s="2" t="n">
+        <v>45912.39583333334</v>
       </c>
       <c r="D291" t="b">
         <v>1</v>
@@ -6717,10 +6143,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:30</t>
-        </is>
+      <c r="C292" s="2" t="n">
+        <v>45912.4375</v>
       </c>
       <c r="D292" t="b">
         <v>1</v>
@@ -6738,10 +6162,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>2025-09-12 11:00</t>
-        </is>
+      <c r="C293" s="2" t="n">
+        <v>45912.45833333334</v>
       </c>
       <c r="D293" t="b">
         <v>1</v>
@@ -6759,10 +6181,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:30</t>
-        </is>
+      <c r="C294" s="2" t="n">
+        <v>45912.5625</v>
       </c>
       <c r="D294" t="b">
         <v>0</v>
@@ -6782,10 +6202,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:30</t>
-        </is>
+      <c r="C295" s="2" t="n">
+        <v>45912.60416666666</v>
       </c>
       <c r="D295" t="b">
         <v>1</v>
@@ -6803,10 +6221,8 @@
           <t>General Practice</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:00</t>
-        </is>
+      <c r="C296" s="2" t="n">
+        <v>45912.625</v>
       </c>
       <c r="D296" t="b">
         <v>1</v>
@@ -6824,10 +6240,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:00</t>
-        </is>
+      <c r="C297" s="2" t="n">
+        <v>45906.375</v>
       </c>
       <c r="D297" t="b">
         <v>1</v>
@@ -6845,10 +6259,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:30</t>
-        </is>
+      <c r="C298" s="2" t="n">
+        <v>45906.39583333334</v>
       </c>
       <c r="D298" t="b">
         <v>0</v>
@@ -6868,10 +6280,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:00</t>
-        </is>
+      <c r="C299" s="2" t="n">
+        <v>45906.45833333334</v>
       </c>
       <c r="D299" t="b">
         <v>1</v>
@@ -6889,10 +6299,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:30</t>
-        </is>
+      <c r="C300" s="2" t="n">
+        <v>45906.47916666666</v>
       </c>
       <c r="D300" t="b">
         <v>1</v>
@@ -6910,10 +6318,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:00</t>
-        </is>
+      <c r="C301" s="2" t="n">
+        <v>45906.58333333334</v>
       </c>
       <c r="D301" t="b">
         <v>1</v>
@@ -6931,10 +6337,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:30</t>
-        </is>
+      <c r="C302" s="2" t="n">
+        <v>45906.60416666666</v>
       </c>
       <c r="D302" t="b">
         <v>0</v>
@@ -6954,10 +6358,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:00</t>
-        </is>
+      <c r="C303" s="2" t="n">
+        <v>45906.625</v>
       </c>
       <c r="D303" t="b">
         <v>0</v>
@@ -6977,10 +6379,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:30</t>
-        </is>
+      <c r="C304" s="2" t="n">
+        <v>45907.4375</v>
       </c>
       <c r="D304" t="b">
         <v>1</v>
@@ -6998,10 +6398,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>2025-09-07 11:00</t>
-        </is>
+      <c r="C305" s="2" t="n">
+        <v>45907.45833333334</v>
       </c>
       <c r="D305" t="b">
         <v>1</v>
@@ -7019,10 +6417,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>2025-09-07 11:30</t>
-        </is>
+      <c r="C306" s="2" t="n">
+        <v>45907.47916666666</v>
       </c>
       <c r="D306" t="b">
         <v>0</v>
@@ -7042,10 +6438,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:00</t>
-        </is>
+      <c r="C307" s="2" t="n">
+        <v>45907.54166666666</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -7063,10 +6457,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:00</t>
-        </is>
+      <c r="C308" s="2" t="n">
+        <v>45907.58333333334</v>
       </c>
       <c r="D308" t="b">
         <v>1</v>
@@ -7084,10 +6476,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:30</t>
-        </is>
+      <c r="C309" s="2" t="n">
+        <v>45907.60416666666</v>
       </c>
       <c r="D309" t="b">
         <v>1</v>
@@ -7105,10 +6495,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:30</t>
-        </is>
+      <c r="C310" s="2" t="n">
+        <v>45907.64583333334</v>
       </c>
       <c r="D310" t="b">
         <v>1</v>
@@ -7126,10 +6514,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>2025-09-08 09:30</t>
-        </is>
+      <c r="C311" s="2" t="n">
+        <v>45908.39583333334</v>
       </c>
       <c r="D311" t="b">
         <v>1</v>
@@ -7147,10 +6533,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:00</t>
-        </is>
+      <c r="C312" s="2" t="n">
+        <v>45908.41666666666</v>
       </c>
       <c r="D312" t="b">
         <v>1</v>
@@ -7168,10 +6552,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:30</t>
-        </is>
+      <c r="C313" s="2" t="n">
+        <v>45908.4375</v>
       </c>
       <c r="D313" t="b">
         <v>0</v>
@@ -7191,10 +6573,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:30</t>
-        </is>
+      <c r="C314" s="2" t="n">
+        <v>45908.47916666666</v>
       </c>
       <c r="D314" t="b">
         <v>1</v>
@@ -7212,10 +6592,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:00</t>
-        </is>
+      <c r="C315" s="2" t="n">
+        <v>45908.54166666666</v>
       </c>
       <c r="D315" t="b">
         <v>1</v>
@@ -7233,10 +6611,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>2025-09-08 14:00</t>
-        </is>
+      <c r="C316" s="2" t="n">
+        <v>45908.58333333334</v>
       </c>
       <c r="D316" t="b">
         <v>1</v>
@@ -7254,10 +6630,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>2025-09-08 14:30</t>
-        </is>
+      <c r="C317" s="2" t="n">
+        <v>45908.60416666666</v>
       </c>
       <c r="D317" t="b">
         <v>1</v>
@@ -7275,10 +6649,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:30</t>
-        </is>
+      <c r="C318" s="2" t="n">
+        <v>45908.64583333334</v>
       </c>
       <c r="D318" t="b">
         <v>1</v>
@@ -7296,10 +6668,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:00</t>
-        </is>
+      <c r="C319" s="2" t="n">
+        <v>45909.375</v>
       </c>
       <c r="D319" t="b">
         <v>1</v>
@@ -7317,10 +6687,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>2025-09-09 10:00</t>
-        </is>
+      <c r="C320" s="2" t="n">
+        <v>45909.41666666666</v>
       </c>
       <c r="D320" t="b">
         <v>1</v>
@@ -7338,10 +6706,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:00</t>
-        </is>
+      <c r="C321" s="2" t="n">
+        <v>45909.45833333334</v>
       </c>
       <c r="D321" t="b">
         <v>1</v>
@@ -7359,10 +6725,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:30</t>
-        </is>
+      <c r="C322" s="2" t="n">
+        <v>45909.5625</v>
       </c>
       <c r="D322" t="b">
         <v>0</v>
@@ -7382,10 +6746,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>2025-09-09 14:00</t>
-        </is>
+      <c r="C323" s="2" t="n">
+        <v>45909.58333333334</v>
       </c>
       <c r="D323" t="b">
         <v>1</v>
@@ -7403,10 +6765,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:30</t>
-        </is>
+      <c r="C324" s="2" t="n">
+        <v>45909.64583333334</v>
       </c>
       <c r="D324" t="b">
         <v>1</v>
@@ -7424,10 +6784,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>2025-09-10 09:00</t>
-        </is>
+      <c r="C325" s="2" t="n">
+        <v>45910.375</v>
       </c>
       <c r="D325" t="b">
         <v>0</v>
@@ -7447,10 +6805,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>2025-09-10 10:00</t>
-        </is>
+      <c r="C326" s="2" t="n">
+        <v>45910.41666666666</v>
       </c>
       <c r="D326" t="b">
         <v>1</v>
@@ -7468,10 +6824,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>2025-09-10 11:30</t>
-        </is>
+      <c r="C327" s="2" t="n">
+        <v>45910.47916666666</v>
       </c>
       <c r="D327" t="b">
         <v>1</v>
@@ -7489,10 +6843,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>2025-09-10 13:30</t>
-        </is>
+      <c r="C328" s="2" t="n">
+        <v>45910.5625</v>
       </c>
       <c r="D328" t="b">
         <v>1</v>
@@ -7510,10 +6862,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:30</t>
-        </is>
+      <c r="C329" s="2" t="n">
+        <v>45910.60416666666</v>
       </c>
       <c r="D329" t="b">
         <v>1</v>
@@ -7531,10 +6881,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:00</t>
-        </is>
+      <c r="C330" s="2" t="n">
+        <v>45910.625</v>
       </c>
       <c r="D330" t="b">
         <v>1</v>
@@ -7552,10 +6900,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:30</t>
-        </is>
+      <c r="C331" s="2" t="n">
+        <v>45910.64583333334</v>
       </c>
       <c r="D331" t="b">
         <v>1</v>
@@ -7573,10 +6919,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>2025-09-11 09:30</t>
-        </is>
+      <c r="C332" s="2" t="n">
+        <v>45911.39583333334</v>
       </c>
       <c r="D332" t="b">
         <v>1</v>
@@ -7594,10 +6938,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>2025-09-11 10:30</t>
-        </is>
+      <c r="C333" s="2" t="n">
+        <v>45911.4375</v>
       </c>
       <c r="D333" t="b">
         <v>1</v>
@@ -7615,10 +6957,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:00</t>
-        </is>
+      <c r="C334" s="2" t="n">
+        <v>45911.45833333334</v>
       </c>
       <c r="D334" t="b">
         <v>1</v>
@@ -7636,10 +6976,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:30</t>
-        </is>
+      <c r="C335" s="2" t="n">
+        <v>45911.47916666666</v>
       </c>
       <c r="D335" t="b">
         <v>1</v>
@@ -7657,10 +6995,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:00</t>
-        </is>
+      <c r="C336" s="2" t="n">
+        <v>45911.54166666666</v>
       </c>
       <c r="D336" t="b">
         <v>0</v>
@@ -7680,10 +7016,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:30</t>
-        </is>
+      <c r="C337" s="2" t="n">
+        <v>45911.5625</v>
       </c>
       <c r="D337" t="b">
         <v>1</v>
@@ -7701,10 +7035,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:00</t>
-        </is>
+      <c r="C338" s="2" t="n">
+        <v>45911.625</v>
       </c>
       <c r="D338" t="b">
         <v>1</v>
@@ -7722,10 +7054,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:30</t>
-        </is>
+      <c r="C339" s="2" t="n">
+        <v>45911.64583333334</v>
       </c>
       <c r="D339" t="b">
         <v>1</v>
@@ -7743,10 +7073,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>2025-09-12 09:30</t>
-        </is>
+      <c r="C340" s="2" t="n">
+        <v>45912.39583333334</v>
       </c>
       <c r="D340" t="b">
         <v>1</v>
@@ -7764,10 +7092,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>2025-09-12 10:30</t>
-        </is>
+      <c r="C341" s="2" t="n">
+        <v>45912.4375</v>
       </c>
       <c r="D341" t="b">
         <v>1</v>
@@ -7785,10 +7111,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>2025-09-12 11:00</t>
-        </is>
+      <c r="C342" s="2" t="n">
+        <v>45912.45833333334</v>
       </c>
       <c r="D342" t="b">
         <v>1</v>
@@ -7806,10 +7130,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>2025-09-12 11:30</t>
-        </is>
+      <c r="C343" s="2" t="n">
+        <v>45912.47916666666</v>
       </c>
       <c r="D343" t="b">
         <v>1</v>
@@ -7827,10 +7149,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:00</t>
-        </is>
+      <c r="C344" s="2" t="n">
+        <v>45912.54166666666</v>
       </c>
       <c r="D344" t="b">
         <v>1</v>
@@ -7848,10 +7168,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:30</t>
-        </is>
+      <c r="C345" s="2" t="n">
+        <v>45912.5625</v>
       </c>
       <c r="D345" t="b">
         <v>1</v>
@@ -7869,10 +7187,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:00</t>
-        </is>
+      <c r="C346" s="2" t="n">
+        <v>45912.625</v>
       </c>
       <c r="D346" t="b">
         <v>1</v>
@@ -7890,10 +7206,8 @@
           <t>Dermatology</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:30</t>
-        </is>
+      <c r="C347" s="2" t="n">
+        <v>45912.64583333334</v>
       </c>
       <c r="D347" t="b">
         <v>1</v>
@@ -7911,10 +7225,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:00</t>
-        </is>
+      <c r="C348" s="2" t="n">
+        <v>45906.375</v>
       </c>
       <c r="D348" t="b">
         <v>1</v>
@@ -7932,10 +7244,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>2025-09-06 09:30</t>
-        </is>
+      <c r="C349" s="2" t="n">
+        <v>45906.39583333334</v>
       </c>
       <c r="D349" t="b">
         <v>1</v>
@@ -7953,10 +7263,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>2025-09-06 10:30</t>
-        </is>
+      <c r="C350" s="2" t="n">
+        <v>45906.4375</v>
       </c>
       <c r="D350" t="b">
         <v>0</v>
@@ -7976,10 +7284,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>2025-09-06 11:00</t>
-        </is>
+      <c r="C351" s="2" t="n">
+        <v>45906.45833333334</v>
       </c>
       <c r="D351" t="b">
         <v>1</v>
@@ -7997,10 +7303,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>2025-09-06 13:30</t>
-        </is>
+      <c r="C352" s="2" t="n">
+        <v>45906.5625</v>
       </c>
       <c r="D352" t="b">
         <v>1</v>
@@ -8018,10 +7322,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>2025-09-06 14:30</t>
-        </is>
+      <c r="C353" s="2" t="n">
+        <v>45906.60416666666</v>
       </c>
       <c r="D353" t="b">
         <v>1</v>
@@ -8039,10 +7341,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>2025-09-06 15:00</t>
-        </is>
+      <c r="C354" s="2" t="n">
+        <v>45906.625</v>
       </c>
       <c r="D354" t="b">
         <v>0</v>
@@ -8062,10 +7362,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>2025-09-07 09:30</t>
-        </is>
+      <c r="C355" s="2" t="n">
+        <v>45907.39583333334</v>
       </c>
       <c r="D355" t="b">
         <v>1</v>
@@ -8083,10 +7381,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>2025-09-07 10:00</t>
-        </is>
+      <c r="C356" s="2" t="n">
+        <v>45907.41666666666</v>
       </c>
       <c r="D356" t="b">
         <v>1</v>
@@ -8104,10 +7400,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>2025-09-07 11:00</t>
-        </is>
+      <c r="C357" s="2" t="n">
+        <v>45907.45833333334</v>
       </c>
       <c r="D357" t="b">
         <v>1</v>
@@ -8125,10 +7419,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:00</t>
-        </is>
+      <c r="C358" s="2" t="n">
+        <v>45907.54166666666</v>
       </c>
       <c r="D358" t="b">
         <v>0</v>
@@ -8148,10 +7440,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>2025-09-07 13:30</t>
-        </is>
+      <c r="C359" s="2" t="n">
+        <v>45907.5625</v>
       </c>
       <c r="D359" t="b">
         <v>1</v>
@@ -8169,10 +7459,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>2025-09-07 14:00</t>
-        </is>
+      <c r="C360" s="2" t="n">
+        <v>45907.58333333334</v>
       </c>
       <c r="D360" t="b">
         <v>1</v>
@@ -8190,10 +7478,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>2025-09-07 15:30</t>
-        </is>
+      <c r="C361" s="2" t="n">
+        <v>45907.64583333334</v>
       </c>
       <c r="D361" t="b">
         <v>1</v>
@@ -8211,10 +7497,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>2025-09-08 09:00</t>
-        </is>
+      <c r="C362" s="2" t="n">
+        <v>45908.375</v>
       </c>
       <c r="D362" t="b">
         <v>1</v>
@@ -8232,10 +7516,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>2025-09-08 09:30</t>
-        </is>
+      <c r="C363" s="2" t="n">
+        <v>45908.39583333334</v>
       </c>
       <c r="D363" t="b">
         <v>1</v>
@@ -8253,10 +7535,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>2025-09-08 10:30</t>
-        </is>
+      <c r="C364" s="2" t="n">
+        <v>45908.4375</v>
       </c>
       <c r="D364" t="b">
         <v>1</v>
@@ -8274,10 +7554,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>2025-09-08 11:00</t>
-        </is>
+      <c r="C365" s="2" t="n">
+        <v>45908.45833333334</v>
       </c>
       <c r="D365" t="b">
         <v>0</v>
@@ -8297,10 +7575,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>2025-09-08 13:00</t>
-        </is>
+      <c r="C366" s="2" t="n">
+        <v>45908.54166666666</v>
       </c>
       <c r="D366" t="b">
         <v>1</v>
@@ -8318,10 +7594,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>2025-09-08 14:30</t>
-        </is>
+      <c r="C367" s="2" t="n">
+        <v>45908.60416666666</v>
       </c>
       <c r="D367" t="b">
         <v>1</v>
@@ -8339,10 +7613,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:00</t>
-        </is>
+      <c r="C368" s="2" t="n">
+        <v>45908.625</v>
       </c>
       <c r="D368" t="b">
         <v>1</v>
@@ -8360,10 +7632,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>2025-09-08 15:30</t>
-        </is>
+      <c r="C369" s="2" t="n">
+        <v>45908.64583333334</v>
       </c>
       <c r="D369" t="b">
         <v>1</v>
@@ -8381,10 +7651,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>2025-09-09 09:30</t>
-        </is>
+      <c r="C370" s="2" t="n">
+        <v>45909.39583333334</v>
       </c>
       <c r="D370" t="b">
         <v>1</v>
@@ -8402,10 +7670,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>2025-09-09 10:00</t>
-        </is>
+      <c r="C371" s="2" t="n">
+        <v>45909.41666666666</v>
       </c>
       <c r="D371" t="b">
         <v>1</v>
@@ -8423,10 +7689,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>2025-09-09 10:30</t>
-        </is>
+      <c r="C372" s="2" t="n">
+        <v>45909.4375</v>
       </c>
       <c r="D372" t="b">
         <v>1</v>
@@ -8444,10 +7708,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>2025-09-09 11:30</t>
-        </is>
+      <c r="C373" s="2" t="n">
+        <v>45909.47916666666</v>
       </c>
       <c r="D373" t="b">
         <v>0</v>
@@ -8467,10 +7729,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>2025-09-09 13:30</t>
-        </is>
+      <c r="C374" s="2" t="n">
+        <v>45909.5625</v>
       </c>
       <c r="D374" t="b">
         <v>1</v>
@@ -8488,10 +7748,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:00</t>
-        </is>
+      <c r="C375" s="2" t="n">
+        <v>45909.625</v>
       </c>
       <c r="D375" t="b">
         <v>1</v>
@@ -8509,10 +7767,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>2025-09-09 15:30</t>
-        </is>
+      <c r="C376" s="2" t="n">
+        <v>45909.64583333334</v>
       </c>
       <c r="D376" t="b">
         <v>1</v>
@@ -8530,10 +7786,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>2025-09-10 09:00</t>
-        </is>
+      <c r="C377" s="2" t="n">
+        <v>45910.375</v>
       </c>
       <c r="D377" t="b">
         <v>1</v>
@@ -8551,10 +7805,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>2025-09-10 09:30</t>
-        </is>
+      <c r="C378" s="2" t="n">
+        <v>45910.39583333334</v>
       </c>
       <c r="D378" t="b">
         <v>1</v>
@@ -8572,10 +7824,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>2025-09-10 13:00</t>
-        </is>
+      <c r="C379" s="2" t="n">
+        <v>45910.54166666666</v>
       </c>
       <c r="D379" t="b">
         <v>1</v>
@@ -8593,10 +7843,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>2025-09-10 13:30</t>
-        </is>
+      <c r="C380" s="2" t="n">
+        <v>45910.5625</v>
       </c>
       <c r="D380" t="b">
         <v>1</v>
@@ -8614,10 +7862,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>2025-09-10 14:00</t>
-        </is>
+      <c r="C381" s="2" t="n">
+        <v>45910.58333333334</v>
       </c>
       <c r="D381" t="b">
         <v>1</v>
@@ -8635,10 +7881,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:00</t>
-        </is>
+      <c r="C382" s="2" t="n">
+        <v>45910.625</v>
       </c>
       <c r="D382" t="b">
         <v>1</v>
@@ -8656,10 +7900,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>2025-09-10 15:30</t>
-        </is>
+      <c r="C383" s="2" t="n">
+        <v>45910.64583333334</v>
       </c>
       <c r="D383" t="b">
         <v>1</v>
@@ -8677,10 +7919,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>2025-09-11 09:00</t>
-        </is>
+      <c r="C384" s="2" t="n">
+        <v>45911.375</v>
       </c>
       <c r="D384" t="b">
         <v>1</v>
@@ -8698,10 +7938,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>2025-09-11 09:30</t>
-        </is>
+      <c r="C385" s="2" t="n">
+        <v>45911.39583333334</v>
       </c>
       <c r="D385" t="b">
         <v>1</v>
@@ -8719,10 +7957,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>2025-09-11 10:30</t>
-        </is>
+      <c r="C386" s="2" t="n">
+        <v>45911.4375</v>
       </c>
       <c r="D386" t="b">
         <v>1</v>
@@ -8740,10 +7976,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>2025-09-11 11:30</t>
-        </is>
+      <c r="C387" s="2" t="n">
+        <v>45911.47916666666</v>
       </c>
       <c r="D387" t="b">
         <v>1</v>
@@ -8761,10 +7995,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>2025-09-11 13:30</t>
-        </is>
+      <c r="C388" s="2" t="n">
+        <v>45911.5625</v>
       </c>
       <c r="D388" t="b">
         <v>0</v>
@@ -8784,10 +8016,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>2025-09-11 14:30</t>
-        </is>
+      <c r="C389" s="2" t="n">
+        <v>45911.60416666666</v>
       </c>
       <c r="D389" t="b">
         <v>1</v>
@@ -8805,10 +8035,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>2025-09-11 15:30</t>
-        </is>
+      <c r="C390" s="2" t="n">
+        <v>45911.64583333334</v>
       </c>
       <c r="D390" t="b">
         <v>1</v>
@@ -8826,10 +8054,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>2025-09-12 11:00</t>
-        </is>
+      <c r="C391" s="2" t="n">
+        <v>45912.45833333334</v>
       </c>
       <c r="D391" t="b">
         <v>1</v>
@@ -8847,10 +8073,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:00</t>
-        </is>
+      <c r="C392" s="2" t="n">
+        <v>45912.54166666666</v>
       </c>
       <c r="D392" t="b">
         <v>1</v>
@@ -8868,10 +8092,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>2025-09-12 13:30</t>
-        </is>
+      <c r="C393" s="2" t="n">
+        <v>45912.5625</v>
       </c>
       <c r="D393" t="b">
         <v>1</v>
@@ -8889,10 +8111,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>2025-09-12 14:00</t>
-        </is>
+      <c r="C394" s="2" t="n">
+        <v>45912.58333333334</v>
       </c>
       <c r="D394" t="b">
         <v>1</v>
@@ -8910,10 +8130,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:00</t>
-        </is>
+      <c r="C395" s="2" t="n">
+        <v>45912.625</v>
       </c>
       <c r="D395" t="b">
         <v>1</v>
@@ -8931,10 +8149,8 @@
           <t>Cardiology</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>2025-09-12 15:30</t>
-        </is>
+      <c r="C396" s="2" t="n">
+        <v>45912.64583333334</v>
       </c>
       <c r="D396" t="b">
         <v>1</v>

--- a/data/doctors.xlsx
+++ b/data/doctors.xlsx
@@ -850,9 +850,11 @@
         <v>45908.45833333334</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1067,9 +1069,11 @@
         <v>45910.4375</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1107,9 +1111,11 @@
         <v>45910.47916666666</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3057,9 +3063,11 @@
         <v>45910.39583333334</v>
       </c>
       <c r="D134" t="b">
-        <v>1</v>
-      </c>
-      <c r="E134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4954,9 +4962,11 @@
         <v>45910.39583333334</v>
       </c>
       <c r="D231" t="b">
-        <v>1</v>
-      </c>
-      <c r="E231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">

--- a/data/doctors.xlsx
+++ b/data/doctors.xlsx
@@ -3044,9 +3044,11 @@
         <v>45910.375</v>
       </c>
       <c r="D133" t="b">
-        <v>1</v>
-      </c>
-      <c r="E133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3103,9 +3105,11 @@
         <v>45910.4375</v>
       </c>
       <c r="D136" t="b">
-        <v>1</v>
-      </c>
-      <c r="E136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4051,9 +4055,11 @@
         <v>45910.4375</v>
       </c>
       <c r="D184" t="b">
-        <v>1</v>
-      </c>
-      <c r="E184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5883,9 +5889,11 @@
         <v>45910.375</v>
       </c>
       <c r="D278" t="b">
-        <v>1</v>
-      </c>
-      <c r="E278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
